--- a/biology/Botanique/Cimetière_de_Vuorentaka/Cimetière_de_Vuorentaka.xlsx
+++ b/biology/Botanique/Cimetière_de_Vuorentaka/Cimetière_de_Vuorentaka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Vuorentaka</t>
+          <t>Cimetière_de_Vuorentaka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Vuorentaka  (finnois : Vuorentaan hautausmaa) est un cimetière du quartier de Vuorentaka à Hämeenlinna en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Vuorentaka  (finnois : Vuorentaan hautausmaa) est un cimetière du quartier de Vuorentaka à Hämeenlinna en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Vuorentaka</t>
+          <t>Cimetière_de_Vuorentaka</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé en 1971, le cimetière de Vuorentaka est situé le long de la route Marssitie, près de la chapelle de Vuorentaka. 
 La superficie totale du cimetière est de 12 hectares. La partie la plus récente du cimetière est la zone de Tuokkola mise en service en 1995.
